--- a/biology/Histoire de la zoologie et de la botanique/August_Wilhelm_Malm/August_Wilhelm_Malm.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/August_Wilhelm_Malm/August_Wilhelm_Malm.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">August Wilhelm Malm est un zoologiste suédois, né le 23 juillet 1821 à Lund et mort le 5 mars 1882 à Göteborg.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">August Wilhelm Malm est né à Lund, en Suède. Il est autodidacte, sans diplôme universitaire. Dans les années 1838-1839, il a été étudiant et assistant de Sven Nilsson (1787-1883), professeur d'histoire naturelle à l'université de Lund. À partir de 1840, il travaille comme assistant de Carl Jakob Sundevall (1801-1875) au Musée suédois d'histoire naturelle, département zoologique, à Stockholm. Il a étudié la zoologie à Copenhague en 1843-44.
 À partir de 1848, il est conservateur du musée d'histoire naturelle de Göteborg. À partir de 1852, il est professeur de zoologie au lycée de Göteborg. À partir de 1856-67, il est également superviseur des pêcheries du comté de Göteborg et de Bohus.
@@ -544,7 +558,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1877 : Göteborgs och Bohusläns fauna, Ryggradsdjuren. Göteborg. Göteborgs Bohusläns Fauna : 1-674, pls. 1-9.
 1861 : Raekke af fiske, krebsdjur og bloddjur, som ere nye for den Skandinaviske fauna. Förhand. Skandinav. Naturforsk. v. 8 (for 1860): 616-624.
